--- a/template3.xlsx
+++ b/template3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="11145"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="产品初选" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>产品初选表</t>
   </si>
   <si>
     <t>创建时间：</t>
-  </si>
-  <si>
-    <t>Display Risers</t>
-  </si>
-  <si>
-    <t>抬高展示架</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/bestsellers/home-garden/21238290011/ref=pd_zg_hrsr_home-garden</t>
   </si>
   <si>
     <t>在售产品数</t>
@@ -50,7 +41,7 @@
     <t>平均价格（$)</t>
   </si>
   <si>
-    <t>买家垄断系数</t>
+    <t>卖家垄断系数</t>
   </si>
   <si>
     <t>月均销量</t>
@@ -75,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新品占比(%)</t>
     </r>
     <r>
@@ -98,10 +95,13 @@
     </r>
   </si>
   <si>
-    <t>6/12</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新品市场份额(%)</t>
     </r>
     <r>
@@ -125,9 +125,6 @@
     </r>
   </si>
   <si>
-    <t>1.29%/6.92%</t>
-  </si>
-  <si>
     <t>月搜索量</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
   </si>
   <si>
     <t>其他评价</t>
-  </si>
-  <si>
-    <t>事实上</t>
   </si>
 </sst>
 </file>
@@ -336,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,18 +346,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC9C7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +689,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +713,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -749,89 +731,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -853,52 +835,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2094,7 +2064,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" outlineLevelCol="7"/>
@@ -2104,8 +2074,8 @@
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
     <col min="5" max="6" width="27.675" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.675" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.675" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2134,28 +2104,18 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7">
-        <v>11081</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8">
-        <v>20.81</v>
-      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
@@ -2163,17 +2123,13 @@
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
-      <c r="F4" s="9">
-        <v>0.448</v>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1065</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
@@ -2181,17 +2137,13 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
-      <c r="F5" s="11">
-        <v>15582</v>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="12">
-        <v>5475</v>
-      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
@@ -2199,17 +2151,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:8">
       <c r="A7" s="3"/>
@@ -2217,35 +2165,27 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
-      <c r="F7" s="15">
-        <v>771</v>
+      <c r="F7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="15">
-        <v>906</v>
-      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>16</v>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
@@ -2253,17 +2193,13 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
-      <c r="F9" s="15">
-        <v>29237</v>
+      <c r="F9" s="13"/>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.0685</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="38" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
@@ -2271,17 +2207,13 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
-      <c r="F10" s="19">
-        <v>5613</v>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0.32</v>
-      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
@@ -2289,31 +2221,27 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="21" t="s">
-        <v>25</v>
+      <c r="E12" s="17" t="s">
+        <v>20</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="13" ht="30" customHeight="1"/>
     <row r="14" ht="30" customHeight="1"/>
     <row r="15" ht="30" customHeight="1"/>
     <row r="16" ht="30" customHeight="1"/>
@@ -2370,9 +2298,6 @@
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="D3:D12"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.amazon.com/gp/bestsellers/home-garden/21238290011/ref=pd_zg_hrsr_home-garden" tooltip="https://www.amazon.com/gp/bestsellers/home-garden/21238290011/ref=pd_zg_hrsr_home-garden"/>
-  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>

--- a/template3.xlsx
+++ b/template3.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27960" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="产品初选" sheetId="1" r:id="rId1"/>
+    <sheet name="初选数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/template3.xlsx
+++ b/template3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="11730"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="初选数据" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>产品初选表</t>
   </si>
   <si>
     <t>创建时间：</t>
+  </si>
+  <si>
+    <t>细分市场</t>
+  </si>
+  <si>
+    <t>细分市场(翻译)</t>
+  </si>
+  <si>
+    <t>初步结论</t>
+  </si>
+  <si>
+    <t>类目链接</t>
+  </si>
+  <si>
+    <t>最新数据</t>
+  </si>
+  <si>
+    <t>销量趋势（上搜索，下销量）</t>
+  </si>
+  <si>
+    <t>评价数量</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
   <si>
     <t>在售产品数</t>
@@ -134,7 +158,7 @@
     <t>Top75-100月均销售额($)</t>
   </si>
   <si>
-    <t>抛货数量占比</t>
+    <t>平均FBA占比</t>
   </si>
   <si>
     <t>在售商家数</t>
@@ -158,23 +182,10 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF267EF0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -184,6 +195,34 @@
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF267EF0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -330,7 +369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +378,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF88825"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEEAD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -557,6 +602,34 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -668,28 +741,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,178 +762,203 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2061,187 +2150,216 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="27.675" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.675" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="27.675" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.675" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="58" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="40" customHeight="1" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
-    <row r="5" ht="41" customHeight="1" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8"/>
+    <row r="5" ht="40" customHeight="1" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
-    <row r="6" ht="40" customHeight="1" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
+    <row r="6" ht="41" customHeight="1" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="13"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="15"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="16"/>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="9"/>
+    <row r="9" ht="40" customHeight="1" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="18"/>
     </row>
-    <row r="10" ht="38" customHeight="1" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="16"/>
+    <row r="10" ht="27" customHeight="1" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="12"/>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11"/>
+    <row r="11" ht="38" customHeight="1" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="14"/>
     </row>
-    <row r="13" ht="30" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
     <row r="14" ht="30" customHeight="1"/>
     <row r="15" ht="30" customHeight="1"/>
     <row r="16" ht="30" customHeight="1"/>
@@ -2282,21 +2400,24 @@
     <row r="51" ht="30" customHeight="1"/>
     <row r="52" ht="30" customHeight="1"/>
     <row r="53" ht="30" customHeight="1"/>
-    <row r="54" ht="40" customHeight="1"/>
+    <row r="54" ht="30" customHeight="1"/>
     <row r="55" ht="40" customHeight="1"/>
-    <row r="56" ht="30" customHeight="1"/>
-    <row r="57" ht="41" customHeight="1"/>
-    <row r="61" ht="42" customHeight="1"/>
-    <row r="62" ht="87" customHeight="1"/>
+    <row r="56" ht="40" customHeight="1"/>
+    <row r="57" ht="30" customHeight="1"/>
+    <row r="58" ht="41" customHeight="1"/>
+    <row r="62" ht="42" customHeight="1"/>
+    <row r="63" ht="87" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="D4:D13"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
